--- a/testData/TC_CreateOpportunity.xlsx
+++ b/testData/TC_CreateOpportunity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation_Project\E2E_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F416A-4B2C-4F81-84A4-D803E40F6BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927DC68F-2415-41AA-B845-13A9C4672D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Primary Contact</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>User Name</t>
+  </si>
+  <si>
+    <t>Test for Automation-Second</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,9 +436,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E0B39FEC-B450-4F83-B42E-0C9569DEAD1F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A514EAF1-CD2F-4548-A159-52050854A23F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
